--- a/PRODUTOS/Limpeza/Limpeza - Alvejantes.xlsx
+++ b/PRODUTOS/Limpeza/Limpeza - Alvejantes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Água Sanitária Super Candida 2lt</t>
+          <t>Vanish Alvejante S/cloro 500ml</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bdedf666-589a-4218-91dd-7927186cf798.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5049190-e639-4c0c-bb1b-bc111d381f7c.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891035041068</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Água Sanitária Agifácil 2l</t>
+          <t>Limpa Limo Agifacil 500ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb64c32f-dd93-4acf-a06d-8a043cc91707.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66de9707-d05f-47cd-a29c-a0fa9cfab5ad.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898005492110</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Água Sanitária Agifácil 5l</t>
+          <t>Água Sanitária Ypê 5l</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a4c2ec2-4feb-4e07-ab7c-a0392db7a374.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75b2f603-8363-45b9-b69a-66add30a8cf1.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896098904664</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Água Sanitária Super Candida 1lt</t>
+          <t>Água Sanitária Agifácil 5l</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/955e8244-1dea-4057-88c8-f1f2758eeb61.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a4c2ec2-4feb-4e07-ab7c-a0392db7a374.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896098904664</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Água Sanitária Candura 5lt</t>
+          <t>Água Sanitária 1lt Agifácil</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c650257-e8e1-4331-9971-01d1c7f6392f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f175541-06ac-4172-ae5e-041cbae59418.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896098904664</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Água Sanitária 1lt Agifácil</t>
+          <t>Água Sanitária Agifácil 2l</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f175541-06ac-4172-ae5e-041cbae59418.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb64c32f-dd93-4acf-a06d-8a043cc91707.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896098904664</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Água Sanitária Candura 2lt</t>
+          <t>Vinagre De Alcool Castelo 6% 5lt Limpeza</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/73b7a815-1509-40a6-ae8a-bc11f15b6c38.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d4916ea-a0c6-4bf3-9c4c-11951854b4a9.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896048285706</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Água Sanitária Super Candida 5l</t>
+          <t>Vinagre De Alcool Castelo 6% 2l Limpeza</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/609f6aca-4c03-43b7-a170-804783a469a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14939b4c-d7f7-4aa1-b5c1-4096f2c48f65.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896048285799</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Água Sanitária Ypê 2lt</t>
+          <t>Alvejante Urca Maxx S/cloro 1,5l</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42ed04d7-7635-433a-bac7-b05788dc7106.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7875fa4-2e24-4704-9ab9-af34071fa7b8.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896056403987</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Água Sanitária Candura 1lt</t>
+          <t>Água Sanitária Ypê 2lt</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 3,69</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22213477-b57c-4604-809d-f693d2166775.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42ed04d7-7635-433a-bac7-b05788dc7106.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896098904664</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alv Vanish S/cloro Sache 500ml</t>
+          <t>Água Sanitária Ypê 1lt</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df8ba0d0-6a27-4f1c-9967-dbbc2cc5f000.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/633d2c2e-e791-41c1-a509-3bedab38cda2.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896098904664</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vinagre De Alcool Castelo 6% 2l Limpeza</t>
+          <t>Alvejante Vanish White Sache 500ml</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14939b4c-d7f7-4aa1-b5c1-4096f2c48f65.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4005387-c1fe-498f-a924-c96ee786c8a2.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891035040436</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Alvejante Super Candida Multiuso Lavanda Frasco 1lt</t>
+          <t>Tira Mancha Candura 2l Cores S/cloro</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/696934f6-3ccf-4aa8-904d-c96096d7ea87.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0889a62-9d1f-49bd-89b2-8f60d5612235.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896105500223</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vanish Alvejante S/cloro 500ml</t>
+          <t>Vanish Crystal White 1,5l</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5049190-e639-4c0c-bb1b-bc111d381f7c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee77d7fa-4631-41ae-96ee-6622d210f100.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891035040412</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Alvejante Super Candida Multiuso Floral Frasco 1lt</t>
+          <t>Água Sanitária Candura 5lt</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f51dc19-2dc6-4ce9-8656-4bd01bd350f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c650257-e8e1-4331-9971-01d1c7f6392f.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896083800032</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vinagre De Alcool Castelo 6% 5lt Limpeza</t>
+          <t>Água Sanitária Candura 2lt</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d4916ea-a0c6-4bf3-9c4c-11951854b4a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/73b7a815-1509-40a6-ae8a-bc11f15b6c38.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896083800032</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Alvejante Super Candida Plus 3em1 1l</t>
+          <t>Água Sanitária Super Candida 5l</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71c0d65c-e88d-49c6-892e-102b64dac66d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/609f6aca-4c03-43b7-a170-804783a469a9.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896083800032</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Alvejante Vanish White Sache 500ml</t>
+          <t>Água Sanitária Super Candida 2lt</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4005387-c1fe-498f-a924-c96ee786c8a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bdedf666-589a-4218-91dd-7927186cf798.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896083800032</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tira Mancha Candura 2l Cores S/cloro</t>
+          <t>Água Sanitária Super Candida 1lt</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0889a62-9d1f-49bd-89b2-8f60d5612235.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/955e8244-1dea-4057-88c8-f1f2758eeb61.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896083800032</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Água Sanitária Ypê 1lt</t>
+          <t>Alvejante Super Candida Plus 3em1 1l</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/633d2c2e-e791-41c1-a509-3bedab38cda2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71c0d65c-e88d-49c6-892e-102b64dac66d.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896083800681</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Alvejante Urca Maxx S/cloro 1,5l</t>
+          <t>Alvejante Super Candida Multiuso Lavanda Frasco 1lt</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7875fa4-2e24-4704-9ab9-af34071fa7b8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/696934f6-3ccf-4aa8-904d-c96096d7ea87.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896083800353</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Limpa Limo Agifacil 500ml</t>
+          <t>Alvejante Super Candida Multiuso Floral Frasco 1lt</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66de9707-d05f-47cd-a29c-a0fa9cfab5ad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f51dc19-2dc6-4ce9-8656-4bd01bd350f6.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896083800094</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Alvejante Candura Lavanda 1l</t>
+          <t>Alv Vanish S/cloro 1,5l</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68e830f6-b51c-4df5-879e-4d5e666ad27d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5558622f-df1a-4e0e-8acf-8808d71ac803.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891035040504</t>
         </is>
       </c>
     </row>
@@ -1082,71 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Água Sanitária Ypê 5l</t>
+          <t>Alv Vanish S/cloro Sache 500ml</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75b2f603-8363-45b9-b69a-66add30a8cf1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Alvejantes</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Alv Vanish S/cloro 1,5l</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5558622f-df1a-4e0e-8acf-8808d71ac803.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Alvejantes</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Vanish Crystal White 1,5l</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee77d7fa-4631-41ae-96ee-6622d210f100.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df8ba0d0-6a27-4f1c-9967-dbbc2cc5f000.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891035041006</t>
         </is>
       </c>
     </row>
